--- a/numbers1.xlsx
+++ b/numbers1.xlsx
@@ -5,19 +5,20 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaveh\Desktop\Mech-Calculations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaveh\OneDrive\Documents\GitHub\Mechanical_Loads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341A0741-033A-4C03-AC8E-9CAB07D878EB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E911AB72-8E2B-4596-93D8-7C6E8956B72F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
   <si>
     <t>Value(x)</t>
   </si>
@@ -100,9 +101,6 @@
     <t>Front Right Suspensions</t>
   </si>
   <si>
-    <t>Forces: 2G Bump, 1G Turn (to the right) , 1G Brake</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -164,6 +162,12 @@
   </si>
   <si>
     <t>`</t>
+  </si>
+  <si>
+    <t>Forces: 3G Bump, 1G Turn (to the right) , 1G Brake</t>
+  </si>
+  <si>
+    <t>Rear Suspension</t>
   </si>
 </sst>
 </file>
@@ -744,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,7 +783,7 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="11">
         <v>8.9899999999999994E-2</v>
@@ -795,7 +799,7 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="11">
         <v>0.191</v>
@@ -819,7 +823,7 @@
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="11">
         <v>8.7800000000000003E-2</v>
@@ -827,7 +831,7 @@
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="11">
         <v>7.4200000000000002E-2</v>
@@ -843,7 +847,7 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="11">
         <v>0.221</v>
@@ -859,7 +863,7 @@
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="11">
         <v>1.0640000000000001</v>
@@ -870,7 +874,7 @@
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="11">
         <v>1.1100000000000001</v>
@@ -881,7 +885,7 @@
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="11">
         <v>0.85</v>
@@ -892,7 +896,7 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" s="11">
         <v>0.89880000000000004</v>
@@ -901,12 +905,12 @@
         <v>48.8</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="11">
         <v>1.0471999999999999</v>
@@ -926,192 +930,340 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D4"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12">
-        <v>84</v>
-      </c>
-      <c r="B1" s="12">
-        <v>-0.5</v>
-      </c>
-      <c r="C1" s="12">
+      <c r="A1" s="13">
+        <v>80</v>
+      </c>
+      <c r="B1" s="11">
         <v>0</v>
       </c>
-      <c r="D1" s="12">
-        <v>0.372</v>
+      <c r="C1" s="11">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="D1" s="11">
+        <v>0.373</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
-        <v>61.5</v>
-      </c>
-      <c r="B2" s="12">
+      <c r="A2" s="13">
+        <v>30</v>
+      </c>
+      <c r="B2" s="11">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0.26700000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="B3" s="11">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.95699999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
+        <v>13</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0.45</v>
+      </c>
+      <c r="C4" s="11">
+        <v>2</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.23699999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
+        <v>0</v>
+      </c>
+      <c r="B5" s="11">
+        <v>0</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="B6" s="11">
+        <v>0</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.55700000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
+        <v>10.534000000000001</v>
+      </c>
+      <c r="B7" s="11">
+        <v>0</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.45700000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="B8" s="11">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.42699999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
+        <v>6.4279999999999999</v>
+      </c>
+      <c r="B9" s="11">
+        <v>0</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0.75700000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13">
+        <v>5</v>
+      </c>
+      <c r="B10" s="11">
+        <v>-0.15</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0.66700000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
+        <v>0</v>
+      </c>
+      <c r="B11" s="11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="11">
         <v>0.5</v>
       </c>
-      <c r="C2" s="12">
+      <c r="D11" s="11">
         <v>0</v>
       </c>
-      <c r="D2" s="12">
-        <v>0.372</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
-        <v>86</v>
-      </c>
-      <c r="B3" s="12">
-        <v>-0.5</v>
-      </c>
-      <c r="C3" s="12">
-        <v>1.7</v>
-      </c>
-      <c r="D3" s="12">
-        <v>0.372</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
-        <v>60</v>
-      </c>
-      <c r="B4" s="12">
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
+        <v>0</v>
+      </c>
+      <c r="B12" s="11">
+        <v>0</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
+        <v>2.0169999999999999</v>
+      </c>
+      <c r="B13" s="11">
+        <v>0</v>
+      </c>
+      <c r="C13" s="11">
+        <v>-0.4</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0.25700000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
+        <v>12.2</v>
+      </c>
+      <c r="B14" s="11">
+        <v>0</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0.35699999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
+        <v>12.984999999999999</v>
+      </c>
+      <c r="B15" s="11">
+        <v>0</v>
+      </c>
+      <c r="C15" s="11">
+        <v>2</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0.35699999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
+        <v>21.884</v>
+      </c>
+      <c r="B16" s="11">
+        <v>0</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0.23699999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
+        <v>10.688000000000001</v>
+      </c>
+      <c r="B17" s="11">
+        <v>0</v>
+      </c>
+      <c r="C17" s="11">
+        <v>2</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0.23699999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13">
+        <v>0</v>
+      </c>
+      <c r="B18" s="11">
+        <v>0</v>
+      </c>
+      <c r="C18" s="11">
         <v>0.5</v>
       </c>
-      <c r="C4" s="12">
-        <v>1.7</v>
-      </c>
-      <c r="D4" s="12">
-        <v>0.372</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="D18" s="11">
+        <v>0.35699999999999998</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
+      <c r="A19" s="11">
+        <v>0.34</v>
+      </c>
+      <c r="B19" s="11">
+        <v>0</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1</v>
+      </c>
+      <c r="D19" s="11">
+        <v>0.42699999999999999</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="A20" s="11">
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="B20" s="11">
+        <v>-0.2</v>
+      </c>
+      <c r="C20" s="11">
+        <v>-0.1</v>
+      </c>
+      <c r="D20" s="11">
+        <v>0.75700000000000001</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+      <c r="A21" s="11">
+        <v>0.21</v>
+      </c>
+      <c r="B21" s="11">
+        <v>-0.35</v>
+      </c>
+      <c r="C21" s="11">
+        <v>1</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0.42699999999999999</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
+      <c r="A22" s="13">
+        <v>4.4409999999999998</v>
+      </c>
+      <c r="B22" s="11">
+        <v>0</v>
+      </c>
+      <c r="C22" s="11">
+        <v>0</v>
+      </c>
+      <c r="D22" s="11">
+        <v>0.75700000000000001</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
+      <c r="A23" s="11">
+        <v>1</v>
+      </c>
+      <c r="B23" s="11">
+        <v>0</v>
+      </c>
+      <c r="C23" s="11">
+        <v>-0.4</v>
+      </c>
+      <c r="D23" s="11">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
       <c r="D24" s="11"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1120,6 +1272,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC4DD83-EB2C-481D-8086-B3316FCB5B0F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -1216,12 +1388,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1425,7 +1597,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1440,12 +1612,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1466,44 +1638,44 @@
       </c>
       <c r="F1" s="12"/>
       <c r="G1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>32</v>
       </c>
       <c r="P1" s="12"/>
       <c r="Q1" s="13">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="R1" s="11">
         <v>0</v>
       </c>
       <c r="S1" s="11">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T1" s="11">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="U1" s="12"/>
       <c r="V1" s="12"/>
@@ -1562,10 +1734,10 @@
         <v>0</v>
       </c>
       <c r="S2" s="11">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="T2" s="11">
-        <v>-0.05</v>
+        <v>0.3</v>
       </c>
       <c r="U2" s="12"/>
       <c r="V2" s="12"/>
@@ -1579,14 +1751,14 @@
         <v>8.9899999999999994E-2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="11">
         <v>4.4699999999999997E-2</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="11">
@@ -1624,10 +1796,10 @@
         <v>0</v>
       </c>
       <c r="S3" s="11">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="T3" s="11">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="U3" s="12"/>
       <c r="V3" s="12"/>
@@ -1683,13 +1855,13 @@
         <v>13</v>
       </c>
       <c r="R4" s="11">
-        <v>0.32</v>
+        <v>0.45</v>
       </c>
       <c r="S4" s="11">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="T4" s="11">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="12"/>
@@ -1703,14 +1875,14 @@
         <v>0.191</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="11">
         <v>4.9369999999999997E-2</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="11">
@@ -1742,16 +1914,16 @@
       </c>
       <c r="P5" s="12"/>
       <c r="Q5" s="13">
-        <v>2</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="R5" s="11">
         <v>0</v>
       </c>
-      <c r="S5" s="12">
-        <v>0</v>
-      </c>
-      <c r="T5" s="12">
-        <v>0</v>
+      <c r="S5" s="11">
+        <v>1</v>
+      </c>
+      <c r="T5" s="11">
+        <v>0.6</v>
       </c>
       <c r="U5" s="12"/>
       <c r="V5" s="12"/>
@@ -1804,16 +1976,16 @@
       </c>
       <c r="P6" s="12"/>
       <c r="Q6" s="13">
-        <v>11.7</v>
+        <v>10.5</v>
       </c>
       <c r="R6" s="11">
         <v>0</v>
       </c>
       <c r="S6" s="11">
-        <v>1.3</v>
+        <v>0.1</v>
       </c>
       <c r="T6" s="11">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="U6" s="12"/>
       <c r="V6" s="12"/>
@@ -1866,16 +2038,16 @@
       </c>
       <c r="P7" s="12"/>
       <c r="Q7" s="13">
-        <v>10.534000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="R7" s="11">
         <v>0</v>
       </c>
       <c r="S7" s="11">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="T7" s="11">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="U7" s="12"/>
       <c r="V7" s="12"/>
@@ -1889,7 +2061,7 @@
         <v>8.7800000000000003E-2</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="11">
@@ -1928,16 +2100,16 @@
       </c>
       <c r="P8" s="12"/>
       <c r="Q8" s="13">
-        <v>3.5</v>
+        <v>6.4</v>
       </c>
       <c r="R8" s="11">
         <v>0</v>
       </c>
       <c r="S8" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="T8" s="11">
         <v>0.8</v>
-      </c>
-      <c r="T8" s="11">
-        <v>0</v>
       </c>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
@@ -1951,14 +2123,14 @@
         <v>7.4200000000000002E-2</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="11">
         <v>0.88319999999999999</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -1972,16 +2144,16 @@
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
       <c r="Q9" s="13">
-        <v>6.4279999999999999</v>
+        <v>5</v>
       </c>
       <c r="R9" s="11">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="S9" s="11">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="T9" s="11">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
@@ -2012,16 +2184,16 @@
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
       <c r="Q10" s="13">
-        <v>5</v>
-      </c>
-      <c r="R10" s="12">
         <v>0</v>
       </c>
-      <c r="S10" s="12">
+      <c r="R10" s="11">
         <v>0</v>
       </c>
-      <c r="T10" s="12">
-        <v>0</v>
+      <c r="S10" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="T10" s="11">
+        <v>0.1</v>
       </c>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
@@ -2035,7 +2207,7 @@
         <v>0.221</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -2052,16 +2224,16 @@
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
       <c r="Q11" s="13">
-        <v>26.5</v>
+        <v>0</v>
       </c>
       <c r="R11" s="11">
         <v>0</v>
       </c>
       <c r="S11" s="11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T11" s="11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
@@ -2100,16 +2272,16 @@
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
       <c r="Q12" s="13">
-        <v>20</v>
-      </c>
-      <c r="R12" s="12">
+        <v>2</v>
+      </c>
+      <c r="R12" s="11">
         <v>0</v>
       </c>
-      <c r="S12" s="12">
-        <v>0</v>
+      <c r="S12" s="11">
+        <v>-0.4</v>
       </c>
       <c r="T12" s="11">
-        <v>-0.1</v>
+        <v>0.3</v>
       </c>
       <c r="U12" s="12"/>
       <c r="V12" s="12"/>
@@ -2123,11 +2295,11 @@
         <v>1.0640000000000001</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -2150,16 +2322,16 @@
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
       <c r="Q13" s="13">
-        <v>2.0169999999999999</v>
+        <v>12.2</v>
       </c>
       <c r="R13" s="11">
         <v>0</v>
       </c>
       <c r="S13" s="11">
-        <v>-0.55000000000000004</v>
+        <v>0</v>
       </c>
       <c r="T13" s="11">
-        <v>-0.1</v>
+        <v>0.4</v>
       </c>
       <c r="U13" s="12"/>
       <c r="V13" s="12"/>
@@ -2173,7 +2345,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="11">
@@ -2200,16 +2372,16 @@
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
       <c r="Q14" s="13">
-        <v>12.2</v>
+        <v>13</v>
       </c>
       <c r="R14" s="11">
         <v>0</v>
       </c>
       <c r="S14" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T14" s="11">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
       <c r="U14" s="12"/>
       <c r="V14" s="12"/>
@@ -2223,7 +2395,7 @@
         <v>0.85</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="11">
@@ -2250,16 +2422,16 @@
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
       <c r="Q15" s="13">
-        <v>12.984999999999999</v>
+        <v>21.9</v>
       </c>
       <c r="R15" s="11">
         <v>0</v>
       </c>
       <c r="S15" s="11">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="T15" s="11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="U15" s="12"/>
       <c r="V15" s="12"/>
@@ -2273,7 +2445,7 @@
         <v>0.89880000000000004</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="11">
@@ -2292,16 +2464,16 @@
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
       <c r="Q16" s="13">
-        <v>21.884</v>
+        <v>10.7</v>
       </c>
       <c r="R16" s="11">
         <v>0</v>
       </c>
       <c r="S16" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T16" s="11">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="U16" s="12"/>
       <c r="V16" s="12"/>
@@ -2315,7 +2487,7 @@
         <v>1.0471999999999999</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="11">
@@ -2334,16 +2506,16 @@
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="13">
-        <v>10.688000000000001</v>
+        <v>0</v>
       </c>
       <c r="R17" s="11">
         <v>0</v>
       </c>
       <c r="S17" s="11">
-        <v>1.45</v>
+        <v>0.5</v>
       </c>
       <c r="T17" s="11">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="U17" s="12"/>
       <c r="V17" s="12"/>
@@ -2371,14 +2543,14 @@
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
-      <c r="Q18" s="13">
-        <v>5</v>
+      <c r="Q18" s="11">
+        <v>0.3</v>
       </c>
       <c r="R18" s="11">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S18" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T18" s="11">
         <v>0.4</v>
@@ -2409,17 +2581,17 @@
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
-      <c r="Q19" s="13">
-        <v>1</v>
+      <c r="Q19" s="11">
+        <v>1.2</v>
       </c>
       <c r="R19" s="11">
-        <v>0</v>
-      </c>
-      <c r="S19" s="12">
-        <v>0</v>
-      </c>
-      <c r="T19" s="12">
-        <v>0</v>
+        <v>-0.2</v>
+      </c>
+      <c r="S19" s="11">
+        <v>-0.1</v>
+      </c>
+      <c r="T19" s="11">
+        <v>0.8</v>
       </c>
       <c r="U19" s="12"/>
       <c r="V19" s="12"/>
@@ -2448,16 +2620,16 @@
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="11">
-        <v>0.34</v>
+        <v>0.2</v>
       </c>
       <c r="R20" s="11">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="S20" s="11">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="T20" s="11">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="U20" s="12"/>
       <c r="V20" s="12"/>
@@ -2485,17 +2657,17 @@
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
       <c r="P21" s="12"/>
-      <c r="Q21" s="11">
-        <v>1.2150000000000001</v>
+      <c r="Q21" s="13">
+        <v>4.4000000000000004</v>
       </c>
       <c r="R21" s="11">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="S21" s="11">
+        <v>0</v>
+      </c>
+      <c r="T21" s="11">
         <v>0.8</v>
-      </c>
-      <c r="T21" s="11">
-        <v>0</v>
       </c>
       <c r="U21" s="12"/>
       <c r="V21" s="12"/>
@@ -2524,16 +2696,16 @@
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
       <c r="Q22" s="11">
-        <v>0.21</v>
+        <v>1</v>
       </c>
       <c r="R22" s="11">
-        <v>-0.35</v>
+        <v>0</v>
       </c>
       <c r="S22" s="11">
+        <v>-0.4</v>
+      </c>
+      <c r="T22" s="11">
         <v>0.8</v>
-      </c>
-      <c r="T22" s="11">
-        <v>0</v>
       </c>
       <c r="U22" s="12"/>
       <c r="V22" s="12"/>
@@ -2561,18 +2733,10 @@
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
-      <c r="Q23" s="13">
-        <v>4.4409999999999998</v>
-      </c>
-      <c r="R23" s="11">
-        <v>0</v>
-      </c>
-      <c r="S23" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="T23" s="11">
-        <v>0.4</v>
-      </c>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
       <c r="U23" s="12"/>
       <c r="V23" s="12"/>
       <c r="W23" s="12"/>
@@ -2599,18 +2763,10 @@
       <c r="N24" s="12"/>
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
-      <c r="Q24" s="11">
-        <v>1</v>
-      </c>
-      <c r="R24" s="11">
-        <v>0</v>
-      </c>
-      <c r="S24" s="11">
-        <v>-0.4</v>
-      </c>
-      <c r="T24" s="11">
-        <v>0.45</v>
-      </c>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
       <c r="U24" s="12"/>
       <c r="V24" s="12"/>
       <c r="W24" s="12"/>
@@ -2638,18 +2794,10 @@
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
-      <c r="Q25" s="11">
-        <v>5.2</v>
-      </c>
-      <c r="R25" s="12">
-        <v>0</v>
-      </c>
-      <c r="S25" s="12">
-        <v>0</v>
-      </c>
-      <c r="T25" s="12">
-        <v>0</v>
-      </c>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
       <c r="U25" s="12"/>
       <c r="V25" s="12"/>
       <c r="W25" s="12"/>
@@ -29928,10 +30076,6 @@
       <c r="N999" s="12"/>
       <c r="O999" s="12"/>
       <c r="P999" s="12"/>
-      <c r="Q999" s="12"/>
-      <c r="R999" s="12"/>
-      <c r="S999" s="12"/>
-      <c r="T999" s="12"/>
       <c r="U999" s="12"/>
       <c r="V999" s="12"/>
       <c r="W999" s="12"/>
@@ -29956,10 +30100,6 @@
       <c r="N1000" s="12"/>
       <c r="O1000" s="12"/>
       <c r="P1000" s="12"/>
-      <c r="Q1000" s="12"/>
-      <c r="R1000" s="12"/>
-      <c r="S1000" s="12"/>
-      <c r="T1000" s="12"/>
       <c r="U1000" s="12"/>
       <c r="V1000" s="12"/>
       <c r="W1000" s="12"/>

--- a/numbers1.xlsx
+++ b/numbers1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaveh\OneDrive\Documents\GitHub\Mechanical_Loads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E911AB72-8E2B-4596-93D8-7C6E8956B72F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C9D19E-E7BF-43F9-9674-CB291DBDBC6B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="46">
   <si>
     <t>Value(x)</t>
   </si>
@@ -748,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,7 +770,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="11">
-        <v>1.2699999999999999E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -778,7 +778,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="11">
-        <v>9.2999999999999999E-2</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -786,7 +786,7 @@
         <v>32</v>
       </c>
       <c r="B4" s="11">
-        <v>8.9899999999999994E-2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -794,7 +794,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="11">
-        <v>0.49170000000000003</v>
+        <v>0.16400000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -802,7 +802,7 @@
         <v>33</v>
       </c>
       <c r="B6" s="11">
-        <v>0.191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -810,7 +810,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="11">
-        <v>0.217</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -818,7 +818,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="11">
-        <v>0.108</v>
+        <v>0.35899999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -826,7 +826,7 @@
         <v>34</v>
       </c>
       <c r="B9" s="11">
-        <v>8.7800000000000003E-2</v>
+        <v>0.35899999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -834,7 +834,7 @@
         <v>35</v>
       </c>
       <c r="B10" s="11">
-        <v>7.4200000000000002E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -842,7 +842,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="11">
-        <v>0.16500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -850,7 +850,7 @@
         <v>37</v>
       </c>
       <c r="B12" s="11">
-        <v>0.221</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -858,7 +858,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="11">
-        <v>0.13100000000000001</v>
+        <v>0.35899999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -866,7 +866,7 @@
         <v>36</v>
       </c>
       <c r="B14" s="11">
-        <v>1.0640000000000001</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>58</v>
@@ -877,10 +877,11 @@
         <v>38</v>
       </c>
       <c r="B15" s="11">
-        <v>1.1100000000000001</v>
+        <f>RADIANS(C15)</f>
+        <v>1.1344640137963142</v>
       </c>
       <c r="C15">
-        <v>38.659999999999997</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -888,10 +889,11 @@
         <v>39</v>
       </c>
       <c r="B16" s="11">
-        <v>0.85</v>
+        <f t="shared" ref="B16:B18" si="0">RADIANS(C16)</f>
+        <v>0.6108652381980153</v>
       </c>
       <c r="C16">
-        <v>78.935000000000002</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -899,7 +901,7 @@
         <v>40</v>
       </c>
       <c r="B17" s="11">
-        <v>0.89880000000000004</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>48.8</v>
@@ -913,10 +915,11 @@
         <v>41</v>
       </c>
       <c r="B18" s="11">
-        <v>1.0471999999999999</v>
+        <f t="shared" si="0"/>
+        <v>1.1344640137963142</v>
       </c>
       <c r="C18">
-        <v>29.745000000000001</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1275,7 +1278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC4DD83-EB2C-481D-8086-B3316FCB5B0F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -1617,7 +1620,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1679,8 +1682,12 @@
       </c>
       <c r="U1" s="12"/>
       <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
+      <c r="W1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="X1" s="11">
+        <v>1.2699999999999999E-2</v>
+      </c>
       <c r="Y1" s="12"/>
       <c r="Z1" s="12"/>
     </row>
@@ -1741,8 +1748,12 @@
       </c>
       <c r="U2" s="12"/>
       <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
+      <c r="W2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="X2" s="11">
+        <v>9.2999999999999999E-2</v>
+      </c>
       <c r="Y2" s="12"/>
       <c r="Z2" s="12"/>
     </row>
@@ -1803,8 +1814,12 @@
       </c>
       <c r="U3" s="12"/>
       <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
+      <c r="W3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="X3" s="11">
+        <v>8.9899999999999994E-2</v>
+      </c>
       <c r="Y3" s="12"/>
       <c r="Z3" s="12"/>
     </row>
@@ -1865,8 +1880,12 @@
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
+      <c r="W4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="X4" s="11">
+        <v>0.49170000000000003</v>
+      </c>
       <c r="Y4" s="12"/>
       <c r="Z4" s="12"/>
     </row>
@@ -1927,8 +1946,12 @@
       </c>
       <c r="U5" s="12"/>
       <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
+      <c r="W5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="X5" s="11">
+        <v>0.191</v>
+      </c>
       <c r="Y5" s="12"/>
       <c r="Z5" s="12"/>
     </row>
@@ -1989,8 +2012,12 @@
       </c>
       <c r="U6" s="12"/>
       <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
+      <c r="W6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="X6" s="11">
+        <v>0.217</v>
+      </c>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
     </row>
@@ -2051,8 +2078,12 @@
       </c>
       <c r="U7" s="12"/>
       <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
+      <c r="W7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="X7" s="11">
+        <v>0.108</v>
+      </c>
       <c r="Y7" s="12"/>
       <c r="Z7" s="12"/>
     </row>
@@ -2113,8 +2144,12 @@
       </c>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
+      <c r="W8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="X8" s="11">
+        <v>8.7800000000000003E-2</v>
+      </c>
       <c r="Y8" s="12"/>
       <c r="Z8" s="12"/>
     </row>
@@ -2157,8 +2192,12 @@
       </c>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
+      <c r="W9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="X9" s="11">
+        <v>7.4200000000000002E-2</v>
+      </c>
       <c r="Y9" s="12"/>
       <c r="Z9" s="12"/>
     </row>
@@ -2197,8 +2236,12 @@
       </c>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
+      <c r="W10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="X10" s="11">
+        <v>0.16500000000000001</v>
+      </c>
       <c r="Y10" s="12"/>
       <c r="Z10" s="12"/>
     </row>
@@ -2237,8 +2280,12 @@
       </c>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
+      <c r="W11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="X11" s="11">
+        <v>0.221</v>
+      </c>
       <c r="Y11" s="12"/>
       <c r="Z11" s="12"/>
     </row>
@@ -2285,8 +2332,12 @@
       </c>
       <c r="U12" s="12"/>
       <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
+      <c r="W12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="X12" s="11">
+        <v>0.13100000000000001</v>
+      </c>
       <c r="Y12" s="12"/>
       <c r="Z12" s="12"/>
     </row>
@@ -2335,8 +2386,12 @@
       </c>
       <c r="U13" s="12"/>
       <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
+      <c r="W13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="X13" s="11">
+        <v>1.0640000000000001</v>
+      </c>
       <c r="Y13" s="12"/>
       <c r="Z13" s="12"/>
     </row>
@@ -2385,8 +2440,12 @@
       </c>
       <c r="U14" s="12"/>
       <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
+      <c r="W14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="X14" s="11">
+        <v>1.1100000000000001</v>
+      </c>
       <c r="Y14" s="12"/>
       <c r="Z14" s="12"/>
     </row>
@@ -2435,8 +2494,12 @@
       </c>
       <c r="U15" s="12"/>
       <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
+      <c r="W15" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="X15" s="11">
+        <v>0.85</v>
+      </c>
       <c r="Y15" s="12"/>
       <c r="Z15" s="12"/>
     </row>
@@ -2477,8 +2540,12 @@
       </c>
       <c r="U16" s="12"/>
       <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
+      <c r="W16" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="X16" s="11">
+        <v>0.89880000000000004</v>
+      </c>
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
     </row>
@@ -2519,8 +2586,12 @@
       </c>
       <c r="U17" s="12"/>
       <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
+      <c r="W17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="X17" s="11">
+        <v>1.0471999999999999</v>
+      </c>
       <c r="Y17" s="12"/>
       <c r="Z17" s="12"/>
     </row>

--- a/numbers1.xlsx
+++ b/numbers1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaveh\OneDrive\Documents\GitHub\Mechanical_Loads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C9D19E-E7BF-43F9-9674-CB291DBDBC6B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02034821-E38A-4925-93E3-64FE1AEBB832}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -749,7 +749,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/numbers1.xlsx
+++ b/numbers1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaveh\OneDrive\Documents\GitHub\Mechanical_Loads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02034821-E38A-4925-93E3-64FE1AEBB832}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218A2571-6B50-4261-83AF-26920F766625}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="45">
   <si>
     <t>Value(x)</t>
   </si>
@@ -165,9 +165,6 @@
   </si>
   <si>
     <t>Forces: 3G Bump, 1G Turn (to the right) , 1G Brake</t>
-  </si>
-  <si>
-    <t>Rear Suspension</t>
   </si>
 </sst>
 </file>
@@ -749,7 +746,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,17 +1273,57 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC4DD83-EB2C-481D-8086-B3316FCB5B0F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>45</v>
+      <c r="A1">
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>6.6400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4.4699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.18759999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4.9369999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.27939999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.27939999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3.2739999999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.88319999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/numbers1.xlsx
+++ b/numbers1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaveh\OneDrive\Documents\GitHub\Mechanical_Loads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218A2571-6B50-4261-83AF-26920F766625}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2E9AAA-ABAD-43BA-B939-C148E1F6F8A2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -745,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,332 +930,180 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13">
-        <v>80</v>
-      </c>
-      <c r="B1" s="11">
+      <c r="A1" s="12">
+        <v>84</v>
+      </c>
+      <c r="B1" s="12">
+        <v>-0.5</v>
+      </c>
+      <c r="C1" s="12">
         <v>0</v>
       </c>
-      <c r="C1" s="11">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="D1" s="11">
-        <v>0.373</v>
+      <c r="D1" s="12">
+        <v>0.372</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
-        <v>30</v>
-      </c>
-      <c r="B2" s="11">
+      <c r="A2" s="12">
+        <v>61.5</v>
+      </c>
+      <c r="B2" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="12">
         <v>0</v>
       </c>
-      <c r="C2" s="11">
-        <v>1</v>
-      </c>
-      <c r="D2" s="11">
-        <v>0.26700000000000002</v>
+      <c r="D2" s="12">
+        <v>0.372</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
-        <v>4.5</v>
-      </c>
-      <c r="B3" s="11">
-        <v>0</v>
-      </c>
-      <c r="C3" s="11">
+      <c r="A3" s="12">
+        <v>86</v>
+      </c>
+      <c r="B3" s="12">
+        <v>-0.5</v>
+      </c>
+      <c r="C3" s="12">
         <v>1.7</v>
       </c>
-      <c r="D3" s="11">
-        <v>0.95699999999999996</v>
+      <c r="D3" s="12">
+        <v>0.372</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
-        <v>13</v>
-      </c>
-      <c r="B4" s="11">
-        <v>0.45</v>
-      </c>
-      <c r="C4" s="11">
-        <v>2</v>
-      </c>
-      <c r="D4" s="11">
-        <v>0.23699999999999999</v>
+      <c r="A4" s="12">
+        <v>60</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1.7</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.372</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
-        <v>0</v>
-      </c>
-      <c r="B5" s="11">
-        <v>0</v>
-      </c>
-      <c r="C5" s="11">
-        <v>0</v>
-      </c>
-      <c r="D5" s="11">
-        <v>0</v>
-      </c>
+      <c r="A5" s="13"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
-        <v>38.200000000000003</v>
-      </c>
-      <c r="B6" s="11">
-        <v>0</v>
-      </c>
-      <c r="C6" s="11">
-        <v>1</v>
-      </c>
-      <c r="D6" s="11">
-        <v>0.55700000000000005</v>
-      </c>
+      <c r="A6" s="13"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
-        <v>10.534000000000001</v>
-      </c>
-      <c r="B7" s="11">
-        <v>0</v>
-      </c>
-      <c r="C7" s="11">
-        <v>0.05</v>
-      </c>
-      <c r="D7" s="11">
-        <v>0.45700000000000002</v>
-      </c>
+      <c r="A7" s="13"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
-        <v>3.5</v>
-      </c>
-      <c r="B8" s="11">
-        <v>0</v>
-      </c>
-      <c r="C8" s="11">
-        <v>1</v>
-      </c>
-      <c r="D8" s="11">
-        <v>0.42699999999999999</v>
-      </c>
+      <c r="A8" s="13"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
-        <v>6.4279999999999999</v>
-      </c>
-      <c r="B9" s="11">
-        <v>0</v>
-      </c>
-      <c r="C9" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="D9" s="11">
-        <v>0.75700000000000001</v>
-      </c>
+      <c r="A9" s="13"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
-        <v>5</v>
-      </c>
-      <c r="B10" s="11">
-        <v>-0.15</v>
-      </c>
-      <c r="C10" s="11">
-        <v>1</v>
-      </c>
-      <c r="D10" s="11">
-        <v>0.66700000000000004</v>
-      </c>
+      <c r="A10" s="13"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
-        <v>0</v>
-      </c>
-      <c r="B11" s="11">
-        <v>0</v>
-      </c>
-      <c r="C11" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="D11" s="11">
-        <v>0</v>
-      </c>
+      <c r="A11" s="13"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
-        <v>0</v>
-      </c>
-      <c r="B12" s="11">
-        <v>0</v>
-      </c>
-      <c r="C12" s="11">
-        <v>0</v>
-      </c>
-      <c r="D12" s="11">
-        <v>0</v>
-      </c>
+      <c r="A12" s="13"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
-        <v>2.0169999999999999</v>
-      </c>
-      <c r="B13" s="11">
-        <v>0</v>
-      </c>
-      <c r="C13" s="11">
-        <v>-0.4</v>
-      </c>
-      <c r="D13" s="11">
-        <v>0.25700000000000001</v>
-      </c>
+      <c r="A13" s="13"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
-        <v>12.2</v>
-      </c>
-      <c r="B14" s="11">
-        <v>0</v>
-      </c>
-      <c r="C14" s="11">
-        <v>0</v>
-      </c>
-      <c r="D14" s="11">
-        <v>0.35699999999999998</v>
-      </c>
+      <c r="A14" s="13"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13">
-        <v>12.984999999999999</v>
-      </c>
-      <c r="B15" s="11">
-        <v>0</v>
-      </c>
-      <c r="C15" s="11">
-        <v>2</v>
-      </c>
-      <c r="D15" s="11">
-        <v>0.35699999999999998</v>
-      </c>
+      <c r="A15" s="13"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
-        <v>21.884</v>
-      </c>
-      <c r="B16" s="11">
-        <v>0</v>
-      </c>
-      <c r="C16" s="11">
-        <v>0</v>
-      </c>
-      <c r="D16" s="11">
-        <v>0.23699999999999999</v>
-      </c>
+      <c r="A16" s="13"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
-        <v>10.688000000000001</v>
-      </c>
-      <c r="B17" s="11">
-        <v>0</v>
-      </c>
-      <c r="C17" s="11">
-        <v>2</v>
-      </c>
-      <c r="D17" s="11">
-        <v>0.23699999999999999</v>
-      </c>
+      <c r="A17" s="13"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13">
-        <v>0</v>
-      </c>
-      <c r="B18" s="11">
-        <v>0</v>
-      </c>
-      <c r="C18" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="D18" s="11">
-        <v>0.35699999999999998</v>
-      </c>
+      <c r="A18" s="13"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
-        <v>0.34</v>
-      </c>
-      <c r="B19" s="11">
-        <v>0</v>
-      </c>
-      <c r="C19" s="11">
-        <v>1</v>
-      </c>
-      <c r="D19" s="11">
-        <v>0.42699999999999999</v>
-      </c>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
-        <v>1.2150000000000001</v>
-      </c>
-      <c r="B20" s="11">
-        <v>-0.2</v>
-      </c>
-      <c r="C20" s="11">
-        <v>-0.1</v>
-      </c>
-      <c r="D20" s="11">
-        <v>0.75700000000000001</v>
-      </c>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
-        <v>0.21</v>
-      </c>
-      <c r="B21" s="11">
-        <v>-0.35</v>
-      </c>
-      <c r="C21" s="11">
-        <v>1</v>
-      </c>
-      <c r="D21" s="11">
-        <v>0.42699999999999999</v>
-      </c>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13">
-        <v>4.4409999999999998</v>
-      </c>
-      <c r="B22" s="11">
-        <v>0</v>
-      </c>
-      <c r="C22" s="11">
-        <v>0</v>
-      </c>
-      <c r="D22" s="11">
-        <v>0.75700000000000001</v>
-      </c>
+      <c r="A22" s="13"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11">
-        <v>1</v>
-      </c>
-      <c r="B23" s="11">
-        <v>0</v>
-      </c>
-      <c r="C23" s="11">
-        <v>-0.4</v>
-      </c>
-      <c r="D23" s="11">
-        <v>0.4</v>
-      </c>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
@@ -1276,7 +1124,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1432,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1657,7 +1505,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
